--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\API_TEST\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubel\git\repository2\API_TEST\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109893E-32C1-4F1D-92B9-1604B01A9360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E323D4-2F43-46FB-9946-2D622677B694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="3264" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREAT_CUST" sheetId="6" r:id="rId1"/>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>penny16@gmail.com</t>
-  </si>
-  <si>
-    <t>jodi97@hotmail.com</t>
-  </si>
-  <si>
-    <t>ben20@gmail.com</t>
-  </si>
-  <si>
-    <t>sheila.schultz19@yahoo.com</t>
-  </si>
-  <si>
-    <t>rosalie_legros90@yahoo.com</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -61,6 +46,147 @@
   </si>
   <si>
     <t>kalam shikder</t>
+  </si>
+  <si>
+    <t>alison_hammes@yahoo.com</t>
+  </si>
+  <si>
+    <t>ernestine32@yahoo.com</t>
+  </si>
+  <si>
+    <t>lillie75@hotmail.com</t>
+  </si>
+  <si>
+    <t>sharon.heathcote@hotmail.com</t>
+  </si>
+  <si>
+    <t>blanche38@gmail.com</t>
+  </si>
+  <si>
+    <t>jimmie_greenholt@yahoo.com</t>
+  </si>
+  <si>
+    <t>chris_kunze@yahoo.com</t>
+  </si>
+  <si>
+    <t>annette.cole@yahoo.com</t>
+  </si>
+  <si>
+    <t>courtney_lowe@yahoo.com</t>
+  </si>
+  <si>
+    <t>randall53@gmail.com</t>
+  </si>
+  <si>
+    <t>lynne_kertzmann@yahoo.com</t>
+  </si>
+  <si>
+    <t>seth88@hotmail.com</t>
+  </si>
+  <si>
+    <t>chad_heidenreich69@yahoo.com</t>
+  </si>
+  <si>
+    <t>enrique.armstrong95@hotmail.com</t>
+  </si>
+  <si>
+    <t>nettie_greenholt@hotmail.com</t>
+  </si>
+  <si>
+    <t>theresa.oconner18@hotmail.com</t>
+  </si>
+  <si>
+    <t>jose.koepp9@yahoo.com</t>
+  </si>
+  <si>
+    <t>enrique65@hotmail.com</t>
+  </si>
+  <si>
+    <t>wayne_rosenbaum3@hotmail.com</t>
+  </si>
+  <si>
+    <t>ralph40@yahoo.com</t>
+  </si>
+  <si>
+    <t>olive.dubuque@gmail.com</t>
+  </si>
+  <si>
+    <t>alfred.metz@hotmail.com</t>
+  </si>
+  <si>
+    <t>veronica.wiza3@gmail.com</t>
+  </si>
+  <si>
+    <t>patti.murray@gmail.com</t>
+  </si>
+  <si>
+    <t>jessica.macejkovic@hotmail.com</t>
+  </si>
+  <si>
+    <t>arnold7@yahoo.com</t>
+  </si>
+  <si>
+    <t>Eriel Boger</t>
+  </si>
+  <si>
+    <t>Keya Leland</t>
+  </si>
+  <si>
+    <t>Rosalyn Jansen</t>
+  </si>
+  <si>
+    <t>Rylan Schroeder</t>
+  </si>
+  <si>
+    <t>Sammie Terwilliger</t>
+  </si>
+  <si>
+    <t>Aster Lammers</t>
+  </si>
+  <si>
+    <t>Thaddeus Hammer</t>
+  </si>
+  <si>
+    <t>Emry Decastro</t>
+  </si>
+  <si>
+    <t>Alexie Pompa</t>
+  </si>
+  <si>
+    <t>Cassidee Newbold</t>
+  </si>
+  <si>
+    <t>Kenji Nagle</t>
+  </si>
+  <si>
+    <t>Kambri Tsang</t>
+  </si>
+  <si>
+    <t>Jakob Camp</t>
+  </si>
+  <si>
+    <t>Alexiana Threatt</t>
+  </si>
+  <si>
+    <t>Amariana Amerson</t>
+  </si>
+  <si>
+    <t>Roma Roger</t>
+  </si>
+  <si>
+    <t>Ayesha Barone</t>
+  </si>
+  <si>
+    <t>Falyn Heaney</t>
+  </si>
+  <si>
+    <t>Liesl Hight</t>
+  </si>
+  <si>
+    <t>Jovanna Marmolejo</t>
+  </si>
+  <si>
+    <t>Andreas Milner</t>
   </si>
 </sst>
 </file>
@@ -412,14 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="28.68359375" customWidth="1"/>
     <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.68359375" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -430,47 +557,215 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
